--- a/TorqueMonitoring/files/SchnittdatenControl.xlsx
+++ b/TorqueMonitoring/files/SchnittdatenControl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjark/Library/Mobile Documents/com~apple~CloudDocs/Documents/Arbeit/Jade Hochschule/3. Semester (SS23)/HSP L/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torge\source\repos\TorqueMonitoring\TorqueMonitoring\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A358E3-6530-5946-868F-B1EF3700A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F46089-F6F7-45BC-8DA3-029455C1ADF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="52560" windowHeight="28800" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Eingabe:</t>
   </si>
@@ -197,6 +197,30 @@
   </si>
   <si>
     <t>Werkstoffnummer an D3 schicken</t>
+  </si>
+  <si>
+    <t>test2 Stahl</t>
+  </si>
+  <si>
+    <t>test2 NiRo</t>
+  </si>
+  <si>
+    <t>test2 Guss</t>
+  </si>
+  <si>
+    <t>test3 NiRo</t>
+  </si>
+  <si>
+    <t>test2 NE-Metalle</t>
+  </si>
+  <si>
+    <t>Deine Mudder</t>
+  </si>
+  <si>
+    <t>lol 123</t>
+  </si>
+  <si>
+    <t>barne der sack</t>
   </si>
 </sst>
 </file>
@@ -287,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -678,11 +702,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -696,30 +794,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -753,6 +839,60 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -822,7 +962,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1118,367 +1258,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4AD106-9C72-0242-84D8-3D6C38BEEC06}">
-  <dimension ref="B1:N15"/>
+  <dimension ref="B5:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="5" max="5" width="63.375" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="59" customWidth="1"/>
-    <col min="10" max="11" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="35.625" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="17.125" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.100000000000001" thickBot="1"/>
-    <row r="2" spans="2:14" ht="18" thickTop="1" thickBot="1">
-      <c r="B2" s="44" t="s">
+    <row r="5" spans="2:13" ht="16.5" thickBot="1"/>
+    <row r="6" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="F2" s="50" t="s">
+      <c r="D6" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="17.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8">
+        <f>VLOOKUP($D$7,$B$19:$J$31, 5,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9">
+        <f>VLOOKUP($D$7,$B$19:$J$31, 6,0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" thickBot="1">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9">
+        <f>VLOOKUP($D$7,$B$19:$J$31, 7,0)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" thickBot="1">
+      <c r="B12" s="44"/>
+      <c r="C12" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9">
+        <f>VLOOKUP($D$7,$B$19:$J$31, 8,0)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" thickBot="1">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="10">
+        <f>VLOOKUP($D$7,$B$19:$J$31, 9,0)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" thickTop="1"/>
+    <row r="15" spans="2:13" ht="16.5" thickBot="1">
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B16" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="C16" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="D16" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="E16" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="F16" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="41" t="s">
+      <c r="G16" s="68"/>
+      <c r="H16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="I16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="J16" s="38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" ht="18" thickTop="1" thickBot="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="53" t="s">
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B17" s="65"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="63" t="s">
+      <c r="G17" s="67"/>
+      <c r="H17" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="I17" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="J17" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="18" thickTop="1" thickBot="1">
-      <c r="F4" s="52"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="43" t="s">
+    <row r="18" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B18" s="66"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="G18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="56"/>
-    </row>
-    <row r="5" spans="2:14" ht="17.100000000000001" thickTop="1">
-      <c r="F5" s="11">
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B19" s="55">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="C19" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="D19" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="13">
+      <c r="F19" s="12">
         <v>12</v>
       </c>
-      <c r="K5" s="14">
+      <c r="G19" s="13">
         <v>65</v>
       </c>
-      <c r="L5" s="12">
-        <f>(0.01*$D$2)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="H19" s="11">
+        <f>(0.01*$D$6)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="11">
         <v>3000</v>
       </c>
-      <c r="N5" s="15">
+      <c r="J19" s="14">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="17.100000000000001" thickBot="1">
-      <c r="F6" s="16">
+    <row r="20" spans="2:10">
+      <c r="B20" s="56"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="57">
         <v>2</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="C21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="D21" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="18">
+      <c r="F21" s="16">
         <v>19</v>
       </c>
-      <c r="K6" s="19">
+      <c r="G21" s="17">
         <v>40</v>
       </c>
-      <c r="L6" s="17">
-        <f>(0.01*$D$2)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="17">
+      <c r="H21" s="15">
+        <f>(0.01*$D$6)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="15">
         <v>2400</v>
       </c>
-      <c r="N6" s="20">
+      <c r="J21" s="18">
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="18" thickTop="1" thickBot="1">
-      <c r="B7" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="e">
-        <f>VLOOKUP($D$3,$F$5:$N$11, 5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="21">
+    <row r="22" spans="2:10">
+      <c r="B22" s="58"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="58"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="59"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="60">
         <v>3</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="C25" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="D25" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="23">
+      <c r="F25" s="20">
         <v>25</v>
       </c>
-      <c r="K7" s="24">
+      <c r="G25" s="21">
         <v>40</v>
       </c>
-      <c r="L7" s="22">
-        <f>(0.02*$D$2)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
+      <c r="H25" s="19">
+        <f>(0.02*$D$6)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="19">
         <v>1400</v>
       </c>
-      <c r="N7" s="25">
+      <c r="J25" s="22">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18" thickTop="1" thickBot="1">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9" t="e">
-        <f>VLOOKUP($D$3,$F$5:$N$11, 6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F8" s="26">
+    <row r="26" spans="2:10">
+      <c r="B26" s="61"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="62">
         <v>4</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="C27" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="D27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="E27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="28">
+      <c r="F27" s="24">
         <v>87</v>
       </c>
-      <c r="K8" s="29">
+      <c r="G27" s="25">
         <v>240</v>
       </c>
-      <c r="L8" s="27">
-        <f>(0.025*$D2)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="27">
+      <c r="H27" s="23">
+        <f>(0.025*$D6)/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="I27" s="23">
         <v>600</v>
       </c>
-      <c r="N8" s="30">
+      <c r="J27" s="26">
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="17.100000000000001" thickBot="1">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="9" t="e">
-        <f>VLOOKUP($D$3,$F$5:$N$11, 7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="31">
+    <row r="28" spans="2:10">
+      <c r="B28" s="63"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="27">
         <v>5</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="C29" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="D29" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="E29" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34">
+      <c r="F29" s="29"/>
+      <c r="G29" s="30">
         <v>45</v>
       </c>
-      <c r="L9" s="32">
+      <c r="H29" s="28">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="M9" s="32">
+      <c r="I29" s="28">
         <v>1500</v>
       </c>
-      <c r="N9" s="35">
+      <c r="J29" s="31">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="17.100000000000001" thickBot="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <f>VLOOKUP($D$3,$F$5:$N$11, 8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="4">
+    <row r="30" spans="2:10">
+      <c r="B30" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3">
+      <c r="F30" s="2"/>
+      <c r="G30" s="3">
         <v>12</v>
       </c>
-      <c r="L10" s="1">
+      <c r="H30" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="I30" s="1">
         <v>4300</v>
       </c>
-      <c r="N10" s="5">
+      <c r="J30" s="5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="17.100000000000001" thickBot="1">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="10" t="e">
-        <f>VLOOKUP($D$3,$F$5:$N$11, 9,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="36">
+    <row r="31" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B31" s="32">
         <v>7</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="C31" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="D31" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="E31" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39">
+      <c r="F31" s="34"/>
+      <c r="G31" s="35">
         <v>340</v>
       </c>
-      <c r="L11" s="37">
+      <c r="H31" s="33">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="M11" s="37">
+      <c r="I31" s="33">
         <v>300</v>
       </c>
-      <c r="N11" s="40">
+      <c r="J31" s="36">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="17.100000000000001" thickTop="1"/>
-    <row r="14" spans="2:14">
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="C15" t="s">
-        <v>46</v>
+    <row r="32" spans="2:10" ht="16.5" thickTop="1">
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+  <mergeCells count="21">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TorqueMonitoring/files/SchnittdatenControl.xlsx
+++ b/TorqueMonitoring/files/SchnittdatenControl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torge\source\repos\TorqueMonitoring\TorqueMonitoring\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F46089-F6F7-45BC-8DA3-029455C1ADF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0DDA1-C25A-45C6-A868-6DA7450ADAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Eingabe:</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>barne der sack</t>
+  </si>
+  <si>
+    <t>Deiner Mudder 2</t>
   </si>
 </sst>
 </file>
@@ -839,12 +842,87 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,24 +932,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,63 +940,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4AD106-9C72-0242-84D8-3D6C38BEEC06}">
-  <dimension ref="B5:M32"/>
+  <dimension ref="B5:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1365,22 +1368,22 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="68"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="37" t="s">
         <v>7</v>
       </c>
@@ -1395,47 +1398,47 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B17" s="65"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="67" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="77" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="77" t="s">
+      <c r="I17" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B18" s="66"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="70"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B19" s="55">
+      <c r="B19" s="67">
         <v>1</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="61" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -1459,9 +1462,9 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="56"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="11" t="s">
         <v>47</v>
       </c>
@@ -1472,13 +1475,13 @@
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="57">
+      <c r="B21" s="76">
         <v>2</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="73" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -1502,9 +1505,9 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="58"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="15" t="s">
         <v>48</v>
       </c>
@@ -1515,9 +1518,9 @@
       <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="58"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="15" t="s">
         <v>50</v>
       </c>
@@ -1528,9 +1531,9 @@
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="59"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="15" t="s">
         <v>54</v>
       </c>
@@ -1541,13 +1544,13 @@
       <c r="J24" s="18"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="60">
+      <c r="B25" s="69">
         <v>3</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="63" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="19" t="s">
@@ -1571,9 +1574,9 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="61"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="19" t="s">
         <v>49</v>
       </c>
@@ -1584,13 +1587,13 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="62">
+      <c r="B27" s="71">
         <v>4</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="65" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="23" t="s">
@@ -1614,9 +1617,9 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="63"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="23" t="s">
         <v>51</v>
       </c>
@@ -1715,17 +1718,13 @@
         <v>53</v>
       </c>
     </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D27:D28"/>
@@ -1738,6 +1737,15 @@
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TorqueMonitoring/files/SchnittdatenControl.xlsx
+++ b/TorqueMonitoring/files/SchnittdatenControl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torge\source\repos\TorqueMonitoring\TorqueMonitoring\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj2039\source\repos\torquemonitoring\TorqueMonitoring\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0DDA1-C25A-45C6-A868-6DA7450ADAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F15C9A-10B7-44F0-9141-ACD0CFCF3304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="64860" windowHeight="21240" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Eingabe:</t>
   </si>
@@ -45,9 +43,6 @@
   </si>
   <si>
     <t>Werkstoff-nummer</t>
-  </si>
-  <si>
-    <t>Kenn-buchstabe</t>
   </si>
   <si>
     <t>Werkstoffgruppe</t>
@@ -199,31 +194,85 @@
     <t>Werkstoffnummer an D3 schicken</t>
   </si>
   <si>
-    <t>test2 Stahl</t>
-  </si>
-  <si>
-    <t>test2 NiRo</t>
-  </si>
-  <si>
-    <t>test2 Guss</t>
-  </si>
-  <si>
-    <t>test3 NiRo</t>
-  </si>
-  <si>
-    <t>test2 NE-Metalle</t>
-  </si>
-  <si>
-    <t>Deine Mudder</t>
-  </si>
-  <si>
-    <t>lol 123</t>
-  </si>
-  <si>
-    <t>barne der sack</t>
-  </si>
-  <si>
-    <t>Deiner Mudder 2</t>
+    <t>Unlegierte und niedriglegierte Stähle, C &gt; 0,25%,niedrige und mittlere Festigkeit</t>
+  </si>
+  <si>
+    <t>Unlegierte und niedriglegierte Stähle, C &gt; 0,55%, nicht vergütet</t>
+  </si>
+  <si>
+    <t>Niedrig- und hochlegierte Stähle, niedrige Vergütungsstufe</t>
+  </si>
+  <si>
+    <t>Rostfreie ferritische / martensitische Stähle, vergütet</t>
+  </si>
+  <si>
+    <t>Niedrig- und hochlegierte Stähle, mittlere Vergütungsstufe</t>
+  </si>
+  <si>
+    <t>Nichtrostende, austenitische Stähle</t>
+  </si>
+  <si>
+    <t>Nichtrostende, austenitische / ferritische Stähle + Duplex</t>
+  </si>
+  <si>
+    <t>Grauguss + CGI + Temperguss, niedrige Festigkeit</t>
+  </si>
+  <si>
+    <t>Kugelgraphitguss niedrige Festigkeit + Temperguss höhere Festigkeit</t>
+  </si>
+  <si>
+    <t>Grauguss höhere Festigkeit</t>
+  </si>
+  <si>
+    <t>Aluminium-Knetlegierung, nicht ausgehärtet</t>
+  </si>
+  <si>
+    <t>Aluminium-Gusslegierung &lt; 12% Si, nicht ausgehärtet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium-Gusslegierung &lt; 12% Si, ausgehärtet, Aluminium-Gusslegierung &gt;= 12% </t>
+  </si>
+  <si>
+    <t>Rein-Kupfer, Kupferlegierung (Messing, Bronze) mit niedriger Festigkeit</t>
+  </si>
+  <si>
+    <t>Hochfeste Kupferlegierungen, Bronze hoher Festigkeit</t>
+  </si>
+  <si>
+    <t>Warmfeste Legierungen, Eisen-Basis, geglüht</t>
+  </si>
+  <si>
+    <t>Warmfeste Legierungen, Eisen-Basis, ausgehärtet</t>
+  </si>
+  <si>
+    <t>Rein-Titan</t>
+  </si>
+  <si>
+    <t>Warmfeste Legierungen, Nickel-Cobalt-Basis, geglüht</t>
+  </si>
+  <si>
+    <t>Warmfeste Legierungen, Nickel-Cobalt-Basis, ausgehärtet</t>
+  </si>
+  <si>
+    <t>Warmfeste Legierungen, Nickel-Cobalt-Basis, gegossen</t>
+  </si>
+  <si>
+    <t>Gehärtete Stähle 46 - 52 HRC</t>
+  </si>
+  <si>
+    <t>Gehärtete Stähle 52 - 58 HRC</t>
+  </si>
+  <si>
+    <t>Gehärtetes Gusseisen 50 - 60 HRC</t>
+  </si>
+  <si>
+    <t>Thermo- und Duroplaste, ohne abrasive Füllstoffe</t>
+  </si>
+  <si>
+    <t>Graphit</t>
+  </si>
+  <si>
+    <t>Kennbuchstabe</t>
   </si>
 </sst>
 </file>
@@ -252,7 +301,7 @@
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,48 +322,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE7AEDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -470,21 +525,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
@@ -706,13 +746,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -720,10 +775,25 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -731,216 +801,407 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1261,23 +1522,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4AD106-9C72-0242-84D8-3D6C38BEEC06}">
-  <dimension ref="B5:M33"/>
+  <dimension ref="B5:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="37.625" customWidth="1"/>
-    <col min="5" max="5" width="63.375" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="38.25" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="68.75" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="35.625" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="17.125" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
@@ -1286,457 +1547,954 @@
   <sheetData>
     <row r="5" spans="2:13" ht="16.5" thickBot="1"/>
     <row r="6" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
-        <v>10</v>
-      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B7" s="42"/>
-      <c r="C7" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8">
-        <f>VLOOKUP($D$7,$B$19:$J$31, 5,0)</f>
-        <v>12</v>
+      <c r="D9" s="6" t="e">
+        <f>VLOOKUP($D$7,$B$19:$J$49, 5,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9">
-        <f>VLOOKUP($D$7,$B$19:$J$31, 6,0)</f>
-        <v>65</v>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7" t="e">
+        <f>VLOOKUP($D$7,$B$19:$J$49, 6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B11" s="44"/>
-      <c r="C11" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="9">
-        <f>VLOOKUP($D$7,$B$19:$J$31, 7,0)</f>
-        <v>0.05</v>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="e">
+        <f>VLOOKUP($D$7,$B$19:$J$49, 7,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B12" s="44"/>
-      <c r="C12" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="9">
-        <f>VLOOKUP($D$7,$B$19:$J$31, 8,0)</f>
-        <v>3000</v>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="e">
+        <f>VLOOKUP($D$7,$B$19:$J$49, 8,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="10">
-        <f>VLOOKUP($D$7,$B$19:$J$31, 9,0)</f>
-        <v>0.25</v>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="e">
+        <f>VLOOKUP($D$7,$B$19:$J$49, 9,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="16.5" thickTop="1"/>
     <row r="15" spans="2:13" ht="16.5" thickBot="1">
       <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
         <v>44</v>
       </c>
-      <c r="M15" t="s">
+    </row>
+    <row r="16" spans="2:13" ht="16.5" thickTop="1">
+      <c r="B16" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B16" s="46" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B19" s="50">
+        <v>1</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="54">
+        <v>50</v>
+      </c>
+      <c r="G19" s="55">
+        <v>85</v>
+      </c>
+      <c r="H19" s="53">
+        <f>(0.025*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="53">
+        <v>1500</v>
+      </c>
+      <c r="J19" s="56">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="61">
+        <v>37</v>
+      </c>
+      <c r="G20" s="62">
+        <v>85</v>
+      </c>
+      <c r="H20" s="60">
+        <f>(0.025*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="60">
+        <v>1700</v>
+      </c>
+      <c r="J20" s="63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="61">
+        <v>21</v>
+      </c>
+      <c r="G21" s="62">
+        <v>75</v>
+      </c>
+      <c r="H21" s="60">
+        <f>(0.01*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="60">
+        <v>2000</v>
+      </c>
+      <c r="J21" s="63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="61">
+        <v>16</v>
+      </c>
+      <c r="G22" s="62">
+        <v>70</v>
+      </c>
+      <c r="H22" s="60">
+        <f>(0.01*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="60">
+        <v>2200</v>
+      </c>
+      <c r="J22" s="63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="61">
+        <v>16</v>
+      </c>
+      <c r="G23" s="62">
+        <v>70</v>
+      </c>
+      <c r="H23" s="60">
+        <f>(0.01*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="60">
+        <v>2500</v>
+      </c>
+      <c r="J23" s="63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="103">
+        <v>12</v>
+      </c>
+      <c r="G24" s="104">
+        <v>65</v>
+      </c>
+      <c r="H24" s="102">
+        <f>(0.01*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="102">
+        <v>3000</v>
+      </c>
+      <c r="J24" s="105">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B25" s="110">
         <v>2</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C25" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="114">
+        <v>19</v>
+      </c>
+      <c r="G25" s="115">
+        <v>40</v>
+      </c>
+      <c r="H25" s="113">
+        <f>(0.01*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="113">
+        <v>1800</v>
+      </c>
+      <c r="J25" s="116">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="68">
+        <v>19</v>
+      </c>
+      <c r="G26" s="69">
+        <v>40</v>
+      </c>
+      <c r="H26" s="67">
+        <f>(0.01*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="67">
+        <v>2000</v>
+      </c>
+      <c r="J26" s="70">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="121">
+        <v>19</v>
+      </c>
+      <c r="G27" s="122">
+        <v>40</v>
+      </c>
+      <c r="H27" s="120">
+        <f>(0.01*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="120">
+        <v>2400</v>
+      </c>
+      <c r="J27" s="123">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B28" s="16">
         <v>3</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="C28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="107">
+        <v>31</v>
+      </c>
+      <c r="G28" s="108">
+        <v>105</v>
+      </c>
+      <c r="H28" s="106">
+        <f>(0.025*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="106">
+        <v>800</v>
+      </c>
+      <c r="J28" s="109">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="10">
+        <v>25</v>
+      </c>
+      <c r="G29" s="11">
+        <v>85</v>
+      </c>
+      <c r="H29" s="9">
+        <f>(0.025*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>950</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="10">
+        <v>31</v>
+      </c>
+      <c r="G30" s="11">
+        <v>105</v>
+      </c>
+      <c r="H30" s="9">
+        <f>(0.025*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1200</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="125">
+        <v>25</v>
+      </c>
+      <c r="G31" s="126">
+        <v>85</v>
+      </c>
+      <c r="H31" s="124">
+        <f>(0.02*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="124">
+        <v>1400</v>
+      </c>
+      <c r="J31" s="127">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B32" s="135">
         <v>4</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="C32" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="138" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="139">
+        <v>87</v>
+      </c>
+      <c r="G32" s="140">
+        <v>240</v>
+      </c>
+      <c r="H32" s="138">
+        <f>(0.025*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="138">
+        <v>350</v>
+      </c>
+      <c r="J32" s="141">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="71"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="75">
+        <v>87</v>
+      </c>
+      <c r="G33" s="76">
+        <v>240</v>
+      </c>
+      <c r="H33" s="74">
+        <f>(0.025*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="74">
+        <v>600</v>
+      </c>
+      <c r="J33" s="77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="75">
+        <v>50</v>
+      </c>
+      <c r="G34" s="76">
+        <v>170</v>
+      </c>
+      <c r="H34" s="74">
+        <f>(0.015*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="74">
+        <v>600</v>
+      </c>
+      <c r="J34" s="77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="71"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="75">
+        <v>50</v>
+      </c>
+      <c r="G35" s="76">
+        <v>170</v>
+      </c>
+      <c r="H35" s="74">
+        <f>(0.015*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="74">
+        <v>700</v>
+      </c>
+      <c r="J35" s="77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="71"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="75">
+        <v>75</v>
+      </c>
+      <c r="G36" s="76">
+        <v>170</v>
+      </c>
+      <c r="H36" s="74">
+        <f>(0.045*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="74">
+        <v>550</v>
+      </c>
+      <c r="J36" s="77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B37" s="142"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="146">
+        <v>50</v>
+      </c>
+      <c r="G37" s="147">
+        <v>170</v>
+      </c>
+      <c r="H37" s="145">
+        <f>(0.025*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="145">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="148">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B38" s="128">
         <v>5</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="C38" s="129" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="132"/>
+      <c r="G38" s="133">
+        <v>45</v>
+      </c>
+      <c r="H38" s="131">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I38" s="131">
+        <v>2400</v>
+      </c>
+      <c r="J38" s="134">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="78"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="82"/>
+      <c r="G39" s="83">
+        <v>45</v>
+      </c>
+      <c r="H39" s="81">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I39" s="81">
+        <v>2500</v>
+      </c>
+      <c r="J39" s="84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="78"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="82"/>
+      <c r="G40" s="83">
+        <v>45</v>
+      </c>
+      <c r="H40" s="81">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I40" s="81">
+        <v>1300</v>
+      </c>
+      <c r="J40" s="84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="78"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="82"/>
+      <c r="G41" s="83">
+        <v>45</v>
+      </c>
+      <c r="H41" s="81">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I41" s="81">
+        <v>1500</v>
+      </c>
+      <c r="J41" s="84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="78"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="82"/>
+      <c r="G42" s="83">
+        <v>45</v>
+      </c>
+      <c r="H42" s="81">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I42" s="81">
+        <v>2800</v>
+      </c>
+      <c r="J42" s="84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="78"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="82"/>
+      <c r="G43" s="83">
+        <v>45</v>
+      </c>
+      <c r="H43" s="81">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I43" s="81">
+        <v>2900</v>
+      </c>
+      <c r="J43" s="84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B44" s="149"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="153"/>
+      <c r="G44" s="154">
+        <v>45</v>
+      </c>
+      <c r="H44" s="152">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I44" s="152">
+        <v>3000</v>
+      </c>
+      <c r="J44" s="155">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B45" s="163">
         <v>6</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="37" t="s">
+      <c r="C45" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="165" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="167"/>
+      <c r="G45" s="168">
+        <v>28</v>
+      </c>
+      <c r="H45" s="166">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I45" s="166">
+        <v>3000</v>
+      </c>
+      <c r="J45" s="175">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3">
+        <v>16</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3700</v>
+      </c>
+      <c r="J46" s="176">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>4300</v>
+      </c>
+      <c r="J47" s="176">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B48" s="169"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="173"/>
+      <c r="G48" s="174">
+        <v>16</v>
+      </c>
+      <c r="H48" s="172">
+        <v>0.04</v>
+      </c>
+      <c r="I48" s="172">
+        <v>3500</v>
+      </c>
+      <c r="J48" s="177">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B49" s="156">
         <v>7</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B17" s="47"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B18" s="48"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="52"/>
-    </row>
-    <row r="19" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B19" s="67">
-        <v>1</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="12">
-        <v>12</v>
-      </c>
-      <c r="G19" s="13">
-        <v>65</v>
-      </c>
-      <c r="H19" s="11">
-        <f>(0.01*$D$6)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="I19" s="11">
-        <v>3000</v>
-      </c>
-      <c r="J19" s="14">
+      <c r="C49" s="157" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="159" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="160">
+        <v>30</v>
+      </c>
+      <c r="G49" s="161">
+        <v>100</v>
+      </c>
+      <c r="H49" s="159">
+        <f>(0.025*$D$6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="159">
+        <v>150</v>
+      </c>
+      <c r="J49" s="162">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="85"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="89"/>
+      <c r="G50" s="90">
+        <v>80</v>
+      </c>
+      <c r="H50" s="88">
+        <v>0.11</v>
+      </c>
+      <c r="I50" s="88">
+        <v>300</v>
+      </c>
+      <c r="J50" s="91">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="96"/>
+      <c r="G51" s="97">
+        <v>340</v>
+      </c>
+      <c r="H51" s="95">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="I51" s="95">
+        <v>400</v>
+      </c>
+      <c r="J51" s="98">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="68"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="76">
-        <v>2</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="16">
-        <v>19</v>
-      </c>
-      <c r="G21" s="17">
-        <v>40</v>
-      </c>
-      <c r="H21" s="15">
-        <f>(0.01*$D$6)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="I21" s="15">
-        <v>2400</v>
-      </c>
-      <c r="J21" s="18">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="77"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="77"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="78"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="69">
-        <v>3</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="20">
-        <v>25</v>
-      </c>
-      <c r="G25" s="21">
-        <v>40</v>
-      </c>
-      <c r="H25" s="19">
-        <f>(0.02*$D$6)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="I25" s="19">
-        <v>1400</v>
-      </c>
-      <c r="J25" s="22">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="70"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="71">
-        <v>4</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="24">
-        <v>87</v>
-      </c>
-      <c r="G27" s="25">
-        <v>240</v>
-      </c>
-      <c r="H27" s="23">
-        <f>(0.025*$D6)/2</f>
-        <v>0.125</v>
-      </c>
-      <c r="I27" s="23">
-        <v>600</v>
-      </c>
-      <c r="J27" s="26">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="72"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="27">
-        <v>5</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30">
-        <v>45</v>
-      </c>
-      <c r="H29" s="28">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="I29" s="28">
-        <v>1500</v>
-      </c>
-      <c r="J29" s="31">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="4">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3">
-        <v>12</v>
-      </c>
-      <c r="H30" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I30" s="1">
-        <v>4300</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B31" s="32">
-        <v>7</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35">
-        <v>340</v>
-      </c>
-      <c r="H31" s="33">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="I31" s="33">
-        <v>300</v>
-      </c>
-      <c r="J31" s="36">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="16.5" thickTop="1">
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" t="s">
-        <v>55</v>
-      </c>
-    </row>
+    <row r="52" spans="2:10" ht="16.5" thickTop="1"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B21:B24"/>
+  <mergeCells count="30">
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F16:G16"/>
@@ -1746,6 +2504,18 @@
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TorqueMonitoring/files/SchnittdatenControl.xlsx
+++ b/TorqueMonitoring/files/SchnittdatenControl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torge\source\repos\TorqueMonitoring\TorqueMonitoring\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0DDA1-C25A-45C6-A868-6DA7450ADAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1490B3-1E75-4334-AD47-F17B9B1B6A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15030" windowHeight="10770" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Eingabe:</t>
   </si>
@@ -214,16 +214,13 @@
     <t>test2 NE-Metalle</t>
   </si>
   <si>
-    <t>Deine Mudder</t>
-  </si>
-  <si>
-    <t>lol 123</t>
-  </si>
-  <si>
     <t>barne der sack</t>
   </si>
   <si>
-    <t>Deiner Mudder 2</t>
+    <t>bleiu</t>
+  </si>
+  <si>
+    <t>automatenleistsaghlj</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4AD106-9C72-0242-84D8-3D6C38BEEC06}">
-  <dimension ref="B5:M33"/>
+  <dimension ref="B5:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1535,7 +1532,7 @@
       <c r="C24" s="75"/>
       <c r="D24" s="75"/>
       <c r="E24" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
@@ -1712,15 +1709,10 @@
     </row>
     <row r="32" spans="2:10" ht="16.5" thickTop="1">
       <c r="D32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/TorqueMonitoring/files/SchnittdatenControl.xlsx
+++ b/TorqueMonitoring/files/SchnittdatenControl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj2039\source\repos\torquemonitoring\TorqueMonitoring\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torge\source\repos\TorqueMonitoring\TorqueMonitoring\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F15C9A-10B7-44F0-9141-ACD0CFCF3304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE58917-8E18-42D0-B0B8-3F2D39853699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="64860" windowHeight="21240" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
+    <workbookView xWindow="29985" yWindow="1350" windowWidth="21600" windowHeight="12645" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Eingabe:</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>Stahl</t>
   </si>
   <si>
     <t>Niedrig- und hochlegierte Stähle, hohe Vergütungsstufe</t>
@@ -273,6 +270,15 @@
   </si>
   <si>
     <t>Kennbuchstabe</t>
+  </si>
+  <si>
+    <t>Stahl12345</t>
+  </si>
+  <si>
+    <t>Testwerkstoff</t>
+  </si>
+  <si>
+    <t>lol</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -855,11 +861,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -873,205 +890,52 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1080,28 +944,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1110,98 +956,270 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1524,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4AD106-9C72-0242-84D8-3D6C38BEEC06}">
   <dimension ref="B5:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1547,28 +1565,30 @@
   <sheetData>
     <row r="5" spans="2:13" ht="16.5" thickBot="1"/>
     <row r="6" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="6" t="e">
         <f>VLOOKUP($D$7,$B$19:$J$49, 5,0)</f>
@@ -1576,9 +1596,9 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>27</v>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="7" t="e">
         <f>VLOOKUP($D$7,$B$19:$J$49, 6,0)</f>
@@ -1586,9 +1606,9 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
-        <v>31</v>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="e">
         <f>VLOOKUP($D$7,$B$19:$J$49, 7,0)</f>
@@ -1596,9 +1616,9 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
-        <v>35</v>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="7" t="e">
         <f>VLOOKUP($D$7,$B$19:$J$49, 8,0)</f>
@@ -1606,9 +1626,9 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
-        <v>39</v>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="8" t="e">
         <f>VLOOKUP($D$7,$B$19:$J$49, 9,0)</f>
@@ -1618,340 +1638,340 @@
     <row r="14" spans="2:13" ht="16.5" thickTop="1"/>
     <row r="15" spans="2:13" ht="16.5" thickBot="1">
       <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
         <v>43</v>
       </c>
-      <c r="M15" t="s">
+    </row>
+    <row r="16" spans="2:13" ht="16.5" thickTop="1">
+      <c r="B16" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="143"/>
+      <c r="H16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="16.5" thickTop="1">
-      <c r="B16" s="25" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="138"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="141"/>
+      <c r="H17" s="147" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B18" s="139"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="145"/>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B19" s="110">
+        <v>1</v>
+      </c>
+      <c r="C19" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="24">
+        <v>50</v>
+      </c>
+      <c r="G19" s="25">
+        <v>85</v>
+      </c>
+      <c r="H19" s="23">
+        <f>(0.025*$D$6)/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1500</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="111"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="28">
+        <v>37</v>
+      </c>
+      <c r="G20" s="29">
+        <v>85</v>
+      </c>
+      <c r="H20" s="27">
+        <f>(0.025*$D$6)/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="I20" s="27">
+        <v>1700</v>
+      </c>
+      <c r="J20" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="28">
+        <v>21</v>
+      </c>
+      <c r="G21" s="29">
+        <v>75</v>
+      </c>
+      <c r="H21" s="27">
+        <f t="shared" ref="H21:H27" si="0">(0.01*$D$6)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2000</v>
+      </c>
+      <c r="J21" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="111"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="28">
+        <v>16</v>
+      </c>
+      <c r="G22" s="29">
+        <v>70</v>
+      </c>
+      <c r="H22" s="27">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="I22" s="27">
+        <v>2200</v>
+      </c>
+      <c r="J22" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="111"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="28">
+        <v>16</v>
+      </c>
+      <c r="G23" s="29">
+        <v>70</v>
+      </c>
+      <c r="H23" s="27">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2500</v>
+      </c>
+      <c r="J23" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B24" s="112"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="52">
+        <v>12</v>
+      </c>
+      <c r="G24" s="53">
+        <v>65</v>
+      </c>
+      <c r="H24" s="51">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="51">
+        <v>3000</v>
+      </c>
+      <c r="J24" s="54">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B25" s="134">
         <v>2</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="C25" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="60">
+        <v>19</v>
+      </c>
+      <c r="G25" s="61">
+        <v>40</v>
+      </c>
+      <c r="H25" s="59">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="I25" s="59">
+        <v>1800</v>
+      </c>
+      <c r="J25" s="62">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="135"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="32">
+        <v>19</v>
+      </c>
+      <c r="G26" s="33">
+        <v>40</v>
+      </c>
+      <c r="H26" s="31">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="I26" s="31">
+        <v>2000</v>
+      </c>
+      <c r="J26" s="34">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B27" s="136"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="64">
+        <v>19</v>
+      </c>
+      <c r="G27" s="65">
+        <v>40</v>
+      </c>
+      <c r="H27" s="63">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="I27" s="63">
+        <v>2400</v>
+      </c>
+      <c r="J27" s="66">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B28" s="116">
         <v>3</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="45"/>
-    </row>
-    <row r="19" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B19" s="50">
-        <v>1</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="54">
-        <v>50</v>
-      </c>
-      <c r="G19" s="55">
-        <v>85</v>
-      </c>
-      <c r="H19" s="53">
+      <c r="C28" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="56">
+        <v>31</v>
+      </c>
+      <c r="G28" s="57">
+        <v>105</v>
+      </c>
+      <c r="H28" s="55">
         <f>(0.025*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="53">
-        <v>1500</v>
-      </c>
-      <c r="J19" s="56">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="61">
-        <v>37</v>
-      </c>
-      <c r="G20" s="62">
-        <v>85</v>
-      </c>
-      <c r="H20" s="60">
-        <f>(0.025*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="60">
-        <v>1700</v>
-      </c>
-      <c r="J20" s="63">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="61">
-        <v>21</v>
-      </c>
-      <c r="G21" s="62">
-        <v>75</v>
-      </c>
-      <c r="H21" s="60">
-        <f>(0.01*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="60">
-        <v>2000</v>
-      </c>
-      <c r="J21" s="63">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="61">
-        <v>16</v>
-      </c>
-      <c r="G22" s="62">
-        <v>70</v>
-      </c>
-      <c r="H22" s="60">
-        <f>(0.01*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="60">
-        <v>2200</v>
-      </c>
-      <c r="J22" s="63">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="61">
-        <v>16</v>
-      </c>
-      <c r="G23" s="62">
-        <v>70</v>
-      </c>
-      <c r="H23" s="60">
-        <f>(0.01*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="60">
-        <v>2500</v>
-      </c>
-      <c r="J23" s="63">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="103">
-        <v>12</v>
-      </c>
-      <c r="G24" s="104">
-        <v>65</v>
-      </c>
-      <c r="H24" s="102">
-        <f>(0.01*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="102">
-        <v>3000</v>
-      </c>
-      <c r="J24" s="105">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B25" s="110">
-        <v>2</v>
-      </c>
-      <c r="C25" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="114">
-        <v>19</v>
-      </c>
-      <c r="G25" s="115">
-        <v>40</v>
-      </c>
-      <c r="H25" s="113">
-        <f>(0.01*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="113">
-        <v>1800</v>
-      </c>
-      <c r="J25" s="116">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="68">
-        <v>19</v>
-      </c>
-      <c r="G26" s="69">
-        <v>40</v>
-      </c>
-      <c r="H26" s="67">
-        <f>(0.01*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="67">
-        <v>2000</v>
-      </c>
-      <c r="J26" s="70">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="120" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="121">
-        <v>19</v>
-      </c>
-      <c r="G27" s="122">
-        <v>40</v>
-      </c>
-      <c r="H27" s="120">
-        <f>(0.01*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="120">
-        <v>2400</v>
-      </c>
-      <c r="J27" s="123">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B28" s="16">
-        <v>3</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="106" t="s">
+        <v>0.125</v>
+      </c>
+      <c r="I28" s="55">
+        <v>800</v>
+      </c>
+      <c r="J28" s="58">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="117"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" s="107">
-        <v>31</v>
-      </c>
-      <c r="G28" s="108">
-        <v>105</v>
-      </c>
-      <c r="H28" s="106">
-        <f>(0.025*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="106">
-        <v>800</v>
-      </c>
-      <c r="J28" s="109">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="F29" s="10">
         <v>25</v>
@@ -1961,7 +1981,7 @@
       </c>
       <c r="H29" s="9">
         <f>(0.025*$D$6)/2</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I29" s="9">
         <v>950</v>
@@ -1971,11 +1991,11 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="34"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="105"/>
       <c r="E30" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="10">
         <v>31</v>
@@ -1985,7 +2005,7 @@
       </c>
       <c r="H30" s="9">
         <f>(0.025*$D$6)/2</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I30" s="9">
         <v>1200</v>
@@ -1995,365 +2015,365 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B31" s="15"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="125">
+      <c r="B31" s="118"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="126">
+      <c r="F31" s="68">
+        <v>25</v>
+      </c>
+      <c r="G31" s="69">
         <v>85</v>
       </c>
-      <c r="H31" s="124">
+      <c r="H31" s="67">
         <f>(0.02*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="124">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="67">
         <v>1400</v>
       </c>
-      <c r="J31" s="127">
+      <c r="J31" s="70">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B32" s="135">
+      <c r="B32" s="122">
         <v>4</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="137" t="s">
+      <c r="E32" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="76">
+        <v>87</v>
+      </c>
+      <c r="G32" s="77">
+        <v>240</v>
+      </c>
+      <c r="H32" s="75">
+        <f>(0.025*$D$6)/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="I32" s="75">
+        <v>350</v>
+      </c>
+      <c r="J32" s="78">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="123"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="138" t="s">
+      <c r="F33" s="36">
+        <v>87</v>
+      </c>
+      <c r="G33" s="37">
+        <v>240</v>
+      </c>
+      <c r="H33" s="35">
+        <f>(0.025*$D$6)/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="I33" s="35">
+        <v>600</v>
+      </c>
+      <c r="J33" s="38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="123"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="139">
-        <v>87</v>
-      </c>
-      <c r="G32" s="140">
-        <v>240</v>
-      </c>
-      <c r="H32" s="138">
+      <c r="F34" s="36">
+        <v>50</v>
+      </c>
+      <c r="G34" s="37">
+        <v>170</v>
+      </c>
+      <c r="H34" s="35">
+        <f>(0.015*$D$6)/2</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I34" s="35">
+        <v>600</v>
+      </c>
+      <c r="J34" s="38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="123"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="36">
+        <v>50</v>
+      </c>
+      <c r="G35" s="37">
+        <v>170</v>
+      </c>
+      <c r="H35" s="35">
+        <f>(0.015*$D$6)/2</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I35" s="35">
+        <v>700</v>
+      </c>
+      <c r="J35" s="38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="123"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="36">
+        <v>75</v>
+      </c>
+      <c r="G36" s="37">
+        <v>170</v>
+      </c>
+      <c r="H36" s="35">
+        <f>(0.045*$D$6)/2</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="I36" s="35">
+        <v>550</v>
+      </c>
+      <c r="J36" s="38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B37" s="124"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="80">
+        <v>50</v>
+      </c>
+      <c r="G37" s="81">
+        <v>170</v>
+      </c>
+      <c r="H37" s="79">
         <f>(0.025*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="138">
-        <v>350</v>
-      </c>
-      <c r="J32" s="141">
+        <v>0.125</v>
+      </c>
+      <c r="I37" s="79">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="82">
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="75">
-        <v>87</v>
-      </c>
-      <c r="G33" s="76">
-        <v>240</v>
-      </c>
-      <c r="H33" s="74">
-        <f>(0.025*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="74">
-        <v>600</v>
-      </c>
-      <c r="J33" s="77">
+    <row r="38" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B38" s="161">
+        <v>5</v>
+      </c>
+      <c r="C38" s="164" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="167" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73">
+        <v>45</v>
+      </c>
+      <c r="H38" s="71">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I38" s="71">
+        <v>2400</v>
+      </c>
+      <c r="J38" s="74">
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="75">
-        <v>50</v>
-      </c>
-      <c r="G34" s="76">
-        <v>170</v>
-      </c>
-      <c r="H34" s="74">
-        <f>(0.015*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="74">
-        <v>600</v>
-      </c>
-      <c r="J34" s="77">
+    <row r="39" spans="2:10">
+      <c r="B39" s="162"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41">
+        <v>45</v>
+      </c>
+      <c r="H39" s="39">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I39" s="39">
+        <v>2500</v>
+      </c>
+      <c r="J39" s="42">
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="71"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="75">
-        <v>50</v>
-      </c>
-      <c r="G35" s="76">
-        <v>170</v>
-      </c>
-      <c r="H35" s="74">
-        <f>(0.015*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="74">
-        <v>700</v>
-      </c>
-      <c r="J35" s="77">
+    <row r="40" spans="2:10">
+      <c r="B40" s="162"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41">
+        <v>45</v>
+      </c>
+      <c r="H40" s="39">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I40" s="39">
+        <v>1300</v>
+      </c>
+      <c r="J40" s="42">
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="75">
-        <v>75</v>
-      </c>
-      <c r="G36" s="76">
-        <v>170</v>
-      </c>
-      <c r="H36" s="74">
-        <f>(0.045*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="74">
-        <v>550</v>
-      </c>
-      <c r="J36" s="77">
+    <row r="41" spans="2:10">
+      <c r="B41" s="162"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41">
+        <v>45</v>
+      </c>
+      <c r="H41" s="39">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I41" s="39">
+        <v>1500</v>
+      </c>
+      <c r="J41" s="42">
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B37" s="142"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="145" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="146">
-        <v>50</v>
-      </c>
-      <c r="G37" s="147">
-        <v>170</v>
-      </c>
-      <c r="H37" s="145">
-        <f>(0.025*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="145">
-        <v>1000</v>
-      </c>
-      <c r="J37" s="148">
+    <row r="42" spans="2:10">
+      <c r="B42" s="162"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41">
+        <v>45</v>
+      </c>
+      <c r="H42" s="39">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I42" s="39">
+        <v>2800</v>
+      </c>
+      <c r="J42" s="42">
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B38" s="128">
-        <v>5</v>
-      </c>
-      <c r="C38" s="129" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="132"/>
-      <c r="G38" s="133">
+    <row r="43" spans="2:10">
+      <c r="B43" s="162"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="40"/>
+      <c r="G43" s="41">
         <v>45</v>
       </c>
-      <c r="H38" s="131">
+      <c r="H43" s="39">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I38" s="131">
-        <v>2400</v>
-      </c>
-      <c r="J38" s="134">
+      <c r="I43" s="39">
+        <v>2900</v>
+      </c>
+      <c r="J43" s="42">
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="82"/>
-      <c r="G39" s="83">
+    <row r="44" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B44" s="163"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="84"/>
+      <c r="G44" s="85">
         <v>45</v>
       </c>
-      <c r="H39" s="81">
+      <c r="H44" s="83">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I39" s="81">
-        <v>2500</v>
-      </c>
-      <c r="J39" s="84">
+      <c r="I44" s="83">
+        <v>3000</v>
+      </c>
+      <c r="J44" s="86">
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="78"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="82"/>
-      <c r="G40" s="83">
-        <v>45</v>
-      </c>
-      <c r="H40" s="81">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="I40" s="81">
-        <v>1300</v>
-      </c>
-      <c r="J40" s="84">
+    <row r="45" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B45" s="170">
+        <v>6</v>
+      </c>
+      <c r="C45" s="173" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="176" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="92"/>
+      <c r="G45" s="93">
+        <v>28</v>
+      </c>
+      <c r="H45" s="91">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I45" s="91">
+        <v>3000</v>
+      </c>
+      <c r="J45" s="97">
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="78"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="82"/>
-      <c r="G41" s="83">
-        <v>45</v>
-      </c>
-      <c r="H41" s="81">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="I41" s="81">
-        <v>1500</v>
-      </c>
-      <c r="J41" s="84">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="78"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="82"/>
-      <c r="G42" s="83">
-        <v>45</v>
-      </c>
-      <c r="H42" s="81">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="I42" s="81">
-        <v>2800</v>
-      </c>
-      <c r="J42" s="84">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="78"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="83">
-        <v>45</v>
-      </c>
-      <c r="H43" s="81">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="I43" s="81">
-        <v>2900</v>
-      </c>
-      <c r="J43" s="84">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B44" s="149"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="152" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" s="153"/>
-      <c r="G44" s="154">
-        <v>45</v>
-      </c>
-      <c r="H44" s="152">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="I44" s="152">
-        <v>3000</v>
-      </c>
-      <c r="J44" s="155">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B45" s="163">
-        <v>6</v>
-      </c>
-      <c r="C45" s="164" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="165" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="166" t="s">
+    <row r="46" spans="2:10">
+      <c r="B46" s="171"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F45" s="167"/>
-      <c r="G45" s="168">
-        <v>28</v>
-      </c>
-      <c r="H45" s="166">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I45" s="166">
-        <v>3000</v>
-      </c>
-      <c r="J45" s="175">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="3">
@@ -2365,16 +2385,16 @@
       <c r="I46" s="1">
         <v>3700</v>
       </c>
-      <c r="J46" s="176">
+      <c r="J46" s="98">
         <v>0.25</v>
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="35"/>
+      <c r="B47" s="171"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="3">
@@ -2386,104 +2406,111 @@
       <c r="I47" s="1">
         <v>4300</v>
       </c>
-      <c r="J47" s="176">
+      <c r="J47" s="98">
         <v>0.25</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B48" s="169"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="172" t="s">
+      <c r="B48" s="172"/>
+      <c r="C48" s="175"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="95"/>
+      <c r="G48" s="96">
+        <v>16</v>
+      </c>
+      <c r="H48" s="94">
+        <v>0.04</v>
+      </c>
+      <c r="I48" s="94">
+        <v>3500</v>
+      </c>
+      <c r="J48" s="99">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="16.5" thickTop="1">
+      <c r="B49" s="152">
+        <v>7</v>
+      </c>
+      <c r="C49" s="155" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="158" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="173"/>
-      <c r="G48" s="174">
-        <v>16</v>
-      </c>
-      <c r="H48" s="172">
-        <v>0.04</v>
-      </c>
-      <c r="I48" s="172">
-        <v>3500</v>
-      </c>
-      <c r="J48" s="177">
+      <c r="F49" s="88">
+        <v>30</v>
+      </c>
+      <c r="G49" s="89">
+        <v>100</v>
+      </c>
+      <c r="H49" s="87">
+        <f>(0.025*$D$6)/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="I49" s="87">
+        <v>150</v>
+      </c>
+      <c r="J49" s="90">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="153"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45">
+        <v>80</v>
+      </c>
+      <c r="H50" s="43">
+        <v>0.11</v>
+      </c>
+      <c r="I50" s="43">
+        <v>300</v>
+      </c>
+      <c r="J50" s="46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B51" s="154"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49">
+        <v>340</v>
+      </c>
+      <c r="H51" s="47">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="I51" s="47">
+        <v>400</v>
+      </c>
+      <c r="J51" s="50">
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="16.5" thickTop="1">
-      <c r="B49" s="156">
-        <v>7</v>
-      </c>
-      <c r="C49" s="157" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="158" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="159" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="160">
-        <v>30</v>
-      </c>
-      <c r="G49" s="161">
-        <v>100</v>
-      </c>
-      <c r="H49" s="159">
-        <f>(0.025*$D$6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="159">
-        <v>150</v>
-      </c>
-      <c r="J49" s="162">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="85"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="89"/>
-      <c r="G50" s="90">
-        <v>80</v>
-      </c>
-      <c r="H50" s="88">
-        <v>0.11</v>
-      </c>
-      <c r="I50" s="88">
-        <v>300</v>
-      </c>
-      <c r="J50" s="91">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="96"/>
-      <c r="G51" s="97">
-        <v>340</v>
-      </c>
-      <c r="H51" s="95">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="I51" s="95">
-        <v>400</v>
-      </c>
-      <c r="J51" s="98">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="16.5" thickTop="1"/>
+    <row r="52" spans="2:10" ht="16.5" thickTop="1">
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="100" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="B49:B51"/>

--- a/TorqueMonitoring/files/SchnittdatenControl.xlsx
+++ b/TorqueMonitoring/files/SchnittdatenControl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torge\source\repos\TorqueMonitoring\TorqueMonitoring\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Source\Repos\torquemonitoring\TorqueMonitoring\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE58917-8E18-42D0-B0B8-3F2D39853699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ED6C87-FCA6-493C-B88F-804A2E5B7D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="1350" windowWidth="21600" windowHeight="12645" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
+    <workbookView xWindow="-27750" yWindow="4020" windowWidth="27090" windowHeight="13815" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1546,25 +1537,25 @@
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="38.25" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="68.75" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="38.19921875" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+    <col min="5" max="5" width="68.69921875" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" customWidth="1"/>
+    <col min="9" max="9" width="20.8984375" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="12.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:13" ht="16.5" thickBot="1"/>
-    <row r="6" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="2:13" ht="16.2" thickBot="1"/>
+    <row r="6" spans="2:13" ht="16.8" thickTop="1" thickBot="1">
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
@@ -1572,18 +1563,18 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.8" thickTop="1" thickBot="1">
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:13" ht="17.25" thickTop="1" thickBot="1"/>
-    <row r="9" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
+    <row r="8" spans="2:13" ht="16.8" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:13" ht="16.8" thickTop="1" thickBot="1">
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
@@ -1595,7 +1586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="17.25" thickTop="1" thickBot="1">
+    <row r="10" spans="2:13" ht="16.8" thickTop="1" thickBot="1">
       <c r="B10" s="17"/>
       <c r="C10" s="18" t="s">
         <v>26</v>
@@ -1605,7 +1596,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="16.5" thickBot="1">
+    <row r="11" spans="2:13" ht="16.2" thickBot="1">
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
         <v>30</v>
@@ -1615,7 +1606,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="16.5" thickBot="1">
+    <row r="12" spans="2:13" ht="16.2" thickBot="1">
       <c r="B12" s="17"/>
       <c r="C12" s="18" t="s">
         <v>34</v>
@@ -1625,7 +1616,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="16.5" thickBot="1">
+    <row r="13" spans="2:13" ht="16.2" thickBot="1">
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
         <v>38</v>
@@ -1635,8 +1626,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="16.5" thickTop="1"/>
-    <row r="15" spans="2:13" ht="16.5" thickBot="1">
+    <row r="14" spans="2:13" ht="16.2" thickTop="1"/>
+    <row r="15" spans="2:13" ht="16.2" thickBot="1">
       <c r="L15" t="s">
         <v>42</v>
       </c>
@@ -1644,7 +1635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="16.5" thickTop="1">
+    <row r="16" spans="2:13" ht="16.2" thickTop="1">
       <c r="B16" s="137" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="16.5" thickBot="1">
+    <row r="18" spans="2:10" ht="16.2" thickBot="1">
       <c r="B18" s="139"/>
       <c r="C18" s="151"/>
       <c r="D18" s="148"/>
@@ -1708,7 +1699,7 @@
       <c r="I18" s="148"/>
       <c r="J18" s="145"/>
     </row>
-    <row r="19" spans="2:10" ht="16.5" thickTop="1">
+    <row r="19" spans="2:10" ht="16.2" thickTop="1">
       <c r="B19" s="110">
         <v>1</v>
       </c>
@@ -1729,7 +1720,7 @@
       </c>
       <c r="H19" s="23">
         <f>(0.025*$D$6)/2</f>
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I19" s="23">
         <v>1500</v>
@@ -1753,7 +1744,7 @@
       </c>
       <c r="H20" s="27">
         <f>(0.025*$D$6)/2</f>
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I20" s="27">
         <v>1700</v>
@@ -1777,7 +1768,7 @@
       </c>
       <c r="H21" s="27">
         <f t="shared" ref="H21:H27" si="0">(0.01*$D$6)/2</f>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I21" s="27">
         <v>2000</v>
@@ -1801,7 +1792,7 @@
       </c>
       <c r="H22" s="27">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I22" s="27">
         <v>2200</v>
@@ -1825,7 +1816,7 @@
       </c>
       <c r="H23" s="27">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I23" s="27">
         <v>2500</v>
@@ -1834,7 +1825,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="16.5" thickBot="1">
+    <row r="24" spans="2:10" ht="16.2" thickBot="1">
       <c r="B24" s="112"/>
       <c r="C24" s="115"/>
       <c r="D24" s="103"/>
@@ -1849,7 +1840,7 @@
       </c>
       <c r="H24" s="51">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I24" s="51">
         <v>3000</v>
@@ -1858,7 +1849,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="16.5" thickTop="1">
+    <row r="25" spans="2:10" ht="16.2" thickTop="1">
       <c r="B25" s="134">
         <v>2</v>
       </c>
@@ -1879,7 +1870,7 @@
       </c>
       <c r="H25" s="59">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I25" s="59">
         <v>1800</v>
@@ -1903,7 +1894,7 @@
       </c>
       <c r="H26" s="31">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I26" s="31">
         <v>2000</v>
@@ -1912,7 +1903,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="16.5" thickBot="1">
+    <row r="27" spans="2:10" ht="16.2" thickBot="1">
       <c r="B27" s="136"/>
       <c r="C27" s="133"/>
       <c r="D27" s="130"/>
@@ -1927,7 +1918,7 @@
       </c>
       <c r="H27" s="63">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I27" s="63">
         <v>2400</v>
@@ -1936,7 +1927,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="16.5" thickTop="1">
+    <row r="28" spans="2:10" ht="16.2" thickTop="1">
       <c r="B28" s="116">
         <v>3</v>
       </c>
@@ -1957,7 +1948,7 @@
       </c>
       <c r="H28" s="55">
         <f>(0.025*$D$6)/2</f>
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I28" s="55">
         <v>800</v>
@@ -1981,7 +1972,7 @@
       </c>
       <c r="H29" s="9">
         <f>(0.025*$D$6)/2</f>
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I29" s="9">
         <v>950</v>
@@ -2005,7 +1996,7 @@
       </c>
       <c r="H30" s="9">
         <f>(0.025*$D$6)/2</f>
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I30" s="9">
         <v>1200</v>
@@ -2014,7 +2005,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="16.5" thickBot="1">
+    <row r="31" spans="2:10" ht="16.2" thickBot="1">
       <c r="B31" s="118"/>
       <c r="C31" s="121"/>
       <c r="D31" s="106"/>
@@ -2029,7 +2020,7 @@
       </c>
       <c r="H31" s="67">
         <f>(0.02*$D$6)/2</f>
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I31" s="67">
         <v>1400</v>
@@ -2038,7 +2029,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="16.5" thickTop="1">
+    <row r="32" spans="2:10" ht="16.2" thickTop="1">
       <c r="B32" s="122">
         <v>4</v>
       </c>
@@ -2059,7 +2050,7 @@
       </c>
       <c r="H32" s="75">
         <f>(0.025*$D$6)/2</f>
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I32" s="75">
         <v>350</v>
@@ -2083,7 +2074,7 @@
       </c>
       <c r="H33" s="35">
         <f>(0.025*$D$6)/2</f>
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I33" s="35">
         <v>600</v>
@@ -2107,7 +2098,7 @@
       </c>
       <c r="H34" s="35">
         <f>(0.015*$D$6)/2</f>
-        <v>7.4999999999999997E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I34" s="35">
         <v>600</v>
@@ -2131,7 +2122,7 @@
       </c>
       <c r="H35" s="35">
         <f>(0.015*$D$6)/2</f>
-        <v>7.4999999999999997E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I35" s="35">
         <v>700</v>
@@ -2155,7 +2146,7 @@
       </c>
       <c r="H36" s="35">
         <f>(0.045*$D$6)/2</f>
-        <v>0.22499999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I36" s="35">
         <v>550</v>
@@ -2164,7 +2155,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="16.5" thickBot="1">
+    <row r="37" spans="2:10" ht="16.2" thickBot="1">
       <c r="B37" s="124"/>
       <c r="C37" s="127"/>
       <c r="D37" s="109"/>
@@ -2179,7 +2170,7 @@
       </c>
       <c r="H37" s="79">
         <f>(0.025*$D$6)/2</f>
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I37" s="79">
         <v>1000</v>
@@ -2188,7 +2179,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="16.5" thickTop="1">
+    <row r="38" spans="2:10" ht="16.2" thickTop="1">
       <c r="B38" s="161">
         <v>5</v>
       </c>
@@ -2320,7 +2311,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="16.5" thickBot="1">
+    <row r="44" spans="2:10" ht="16.2" thickBot="1">
       <c r="B44" s="163"/>
       <c r="C44" s="166"/>
       <c r="D44" s="169"/>
@@ -2341,7 +2332,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="16.5" thickTop="1">
+    <row r="45" spans="2:10" ht="16.2" thickTop="1">
       <c r="B45" s="170">
         <v>6</v>
       </c>
@@ -2410,7 +2401,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="16.5" thickBot="1">
+    <row r="48" spans="2:10" ht="16.2" thickBot="1">
       <c r="B48" s="172"/>
       <c r="C48" s="175"/>
       <c r="D48" s="178"/>
@@ -2431,7 +2422,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="16.5" thickTop="1">
+    <row r="49" spans="2:10" ht="16.2" thickTop="1">
       <c r="B49" s="152">
         <v>7</v>
       </c>
@@ -2452,7 +2443,7 @@
       </c>
       <c r="H49" s="87">
         <f>(0.025*$D$6)/2</f>
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I49" s="87">
         <v>150</v>
@@ -2482,7 +2473,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="16.5" thickBot="1">
+    <row r="51" spans="2:10" ht="16.2" thickBot="1">
       <c r="B51" s="154"/>
       <c r="C51" s="157"/>
       <c r="D51" s="160"/>
@@ -2503,7 +2494,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="16.5" thickTop="1">
+    <row r="52" spans="2:10" ht="16.2" thickTop="1">
       <c r="D52" t="s">
         <v>73</v>
       </c>

--- a/TorqueMonitoring/files/SchnittdatenControl.xlsx
+++ b/TorqueMonitoring/files/SchnittdatenControl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Source\Repos\torquemonitoring\TorqueMonitoring\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\source\repos\torquemonitoring\TorqueMonitoring\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ED6C87-FCA6-493C-B88F-804A2E5B7D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A7722-623E-462F-8AC6-3C235C5462F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27750" yWindow="4020" windowWidth="27090" windowHeight="13815" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
+    <workbookView xWindow="1140" yWindow="1008" windowWidth="27120" windowHeight="13824" xr2:uid="{2503F9C7-F3A8-A644-B2DD-9F337C9EE520}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -977,6 +977,132 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1084,132 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1636,22 +1636,22 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="16.2" thickTop="1">
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="146" t="s">
+      <c r="D16" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="142" t="s">
+      <c r="F16" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="143"/>
+      <c r="G16" s="134"/>
       <c r="H16" s="19" t="s">
         <v>6</v>
       </c>
@@ -1666,47 +1666,47 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="138"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="140" t="s">
+      <c r="B17" s="129"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="147" t="s">
+      <c r="G17" s="132"/>
+      <c r="H17" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="147" t="s">
+      <c r="I17" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="144" t="s">
+      <c r="J17" s="135" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B18" s="139"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
       <c r="F18" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="145"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="136"/>
     </row>
     <row r="19" spans="2:10" ht="16.2" thickTop="1">
-      <c r="B19" s="110">
+      <c r="B19" s="152">
         <v>1</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="143" t="s">
         <v>72</v>
       </c>
       <c r="E19" s="23" t="s">
@@ -1730,9 +1730,9 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="111"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="102"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="27" t="s">
         <v>46</v>
       </c>
@@ -1754,9 +1754,9 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="102"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="144"/>
       <c r="E21" s="27" t="s">
         <v>47</v>
       </c>
@@ -1778,9 +1778,9 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="111"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="102"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="27" t="s">
         <v>48</v>
       </c>
@@ -1802,9 +1802,9 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="111"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="102"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="144"/>
       <c r="E23" s="27" t="s">
         <v>49</v>
       </c>
@@ -1826,9 +1826,9 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B24" s="112"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="103"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="51" t="s">
         <v>17</v>
       </c>
@@ -1850,13 +1850,13 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="16.2" thickTop="1">
-      <c r="B25" s="134">
+      <c r="B25" s="176">
         <v>2</v>
       </c>
-      <c r="C25" s="131" t="s">
+      <c r="C25" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="128" t="s">
+      <c r="D25" s="170" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="59" t="s">
@@ -1880,9 +1880,9 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="135"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="129"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="171"/>
       <c r="E26" s="31" t="s">
         <v>51</v>
       </c>
@@ -1904,9 +1904,9 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B27" s="136"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="130"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="63" t="s">
         <v>20</v>
       </c>
@@ -1928,13 +1928,13 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="16.2" thickTop="1">
-      <c r="B28" s="116">
+      <c r="B28" s="158">
         <v>3</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="146" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="55" t="s">
@@ -1958,9 +1958,9 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="117"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="105"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="147"/>
       <c r="E29" s="9" t="s">
         <v>53</v>
       </c>
@@ -1982,9 +1982,9 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="117"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="105"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="147"/>
       <c r="E30" s="9" t="s">
         <v>54</v>
       </c>
@@ -2006,9 +2006,9 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B31" s="118"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="106"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="67" t="s">
         <v>25</v>
       </c>
@@ -2030,13 +2030,13 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="16.2" thickTop="1">
-      <c r="B32" s="122">
+      <c r="B32" s="164">
         <v>4</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="149" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="75" t="s">
@@ -2060,9 +2060,9 @@
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="123"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="108"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="150"/>
       <c r="E33" s="35" t="s">
         <v>29</v>
       </c>
@@ -2084,9 +2084,9 @@
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="123"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="108"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="150"/>
       <c r="E34" s="35" t="s">
         <v>56</v>
       </c>
@@ -2108,9 +2108,9 @@
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="123"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="108"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="150"/>
       <c r="E35" s="35" t="s">
         <v>57</v>
       </c>
@@ -2132,9 +2132,9 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="123"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="108"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="35" t="s">
         <v>58</v>
       </c>
@@ -2156,9 +2156,9 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B37" s="124"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="109"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="79" t="s">
         <v>59</v>
       </c>
@@ -2180,13 +2180,13 @@
       </c>
     </row>
     <row r="38" spans="2:10" ht="16.2" thickTop="1">
-      <c r="B38" s="161">
+      <c r="B38" s="110">
         <v>5</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="167" t="s">
+      <c r="D38" s="116" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="71" t="s">
@@ -2207,9 +2207,9 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="162"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="168"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="39" t="s">
         <v>61</v>
       </c>
@@ -2228,9 +2228,9 @@
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="162"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="168"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="39" t="s">
         <v>62</v>
       </c>
@@ -2249,9 +2249,9 @@
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="162"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="168"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="39" t="s">
         <v>33</v>
       </c>
@@ -2270,9 +2270,9 @@
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="162"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="168"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="39" t="s">
         <v>63</v>
       </c>
@@ -2291,9 +2291,9 @@
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="162"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="168"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="39" t="s">
         <v>64</v>
       </c>
@@ -2312,9 +2312,9 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B44" s="163"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="83" t="s">
         <v>65</v>
       </c>
@@ -2333,13 +2333,13 @@
       </c>
     </row>
     <row r="45" spans="2:10" ht="16.2" thickTop="1">
-      <c r="B45" s="170">
+      <c r="B45" s="119">
         <v>6</v>
       </c>
-      <c r="C45" s="173" t="s">
+      <c r="C45" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D45" s="125" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="91" t="s">
@@ -2360,9 +2360,9 @@
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="171"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="177"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="126"/>
       <c r="E46" s="1" t="s">
         <v>67</v>
       </c>
@@ -2381,9 +2381,9 @@
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="171"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="177"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="126"/>
       <c r="E47" s="1" t="s">
         <v>37</v>
       </c>
@@ -2402,9 +2402,9 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B48" s="172"/>
-      <c r="C48" s="175"/>
-      <c r="D48" s="178"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="127"/>
       <c r="E48" s="94" t="s">
         <v>68</v>
       </c>
@@ -2423,13 +2423,13 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="16.2" thickTop="1">
-      <c r="B49" s="152">
+      <c r="B49" s="101">
         <v>7</v>
       </c>
-      <c r="C49" s="155" t="s">
+      <c r="C49" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="158" t="s">
+      <c r="D49" s="107" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="87" t="s">
@@ -2453,9 +2453,9 @@
       </c>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="153"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="159"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="108"/>
       <c r="E50" s="43" t="s">
         <v>41</v>
       </c>
@@ -2474,9 +2474,9 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="16.2" thickBot="1">
-      <c r="B51" s="154"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="160"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="109"/>
       <c r="E51" s="47" t="s">
         <v>70</v>
       </c>
@@ -2504,24 +2504,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
     <mergeCell ref="D19:D24"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="D32:D37"/>
@@ -2534,6 +2516,24 @@
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
